--- a/biology/Zoologie/Celestus_laf/Celestus_laf.xlsx
+++ b/biology/Zoologie/Celestus_laf/Celestus_laf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celestus laf est une espèce de sauriens de la famille des Diploglossidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été découverte au Panama dans la province de Chiriqui à environ 1 250 m d'altitude.
 </t>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, laf, reprend les initiales de l’hôtel (« Lost and Found ») où ont séjourné les découvreurs lors de leurs expéditions.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sebastian Lotzkat, Andreas Hertz et Gunther Köhler, « A new species of Celestus (Squamata: Anguidae) from western Panama », Mesoamerican Herpetology, vol. 3,‎ 2016, p. 962–975 (ISSN 2373-0951, lire en ligne)</t>
         </is>
